--- a/medicine/Sexualité et sexologie/Mongjeonggi/Mongjeonggi.xlsx
+++ b/medicine/Sexualité et sexologie/Mongjeonggi/Mongjeonggi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mongjeonggi (hangeul : 몽정기 ; hanja : 夢精기 ; MR : Mongjŏnggi ; litt. « Saison de rêve ») est un film sud-coréen réalisé par Jung Cho-sin, sorti en 2002.
-Il s'agit de l'adaptation du film American Pie (1999), qui n'a pas eu de succès au box-office coréen contrairement à ce film[1].
+Il s'agit de l'adaptation du film American Pie (1999), qui n'a pas eu de succès au box-office coréen contrairement à ce film.
 Il a pour suite Mongjeonggi 2, sorti en 2005.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe de lycéens est très curieux de la sexualité.
 </t>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : 몽정기
 Titre français : Mongjeonggi
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lee Beom-soo : Byeong-chool
 Kim Seon-a : Yoo-ri
@@ -628,9 +646,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film sort le 7 novembre 2002 et, au total, ne compte que 763 190 spectateurs[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film sort le 7 novembre 2002 et, au total, ne compte que 763 190 spectateurs.
 </t>
         </is>
       </c>
